--- a/Code/Results/Cases/Case_2_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027221699480778</v>
+        <v>1.051273764027869</v>
       </c>
       <c r="D2">
-        <v>1.03904299015493</v>
+        <v>1.05118370490395</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.030994697454509</v>
+        <v>1.058976453859706</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058641103287613</v>
+        <v>1.048681408022068</v>
       </c>
       <c r="J2">
-        <v>1.048617618552945</v>
+        <v>1.056302504192728</v>
       </c>
       <c r="K2">
-        <v>1.049983926260077</v>
+        <v>1.053935912474021</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.042038476116059</v>
+        <v>1.061707217612974</v>
       </c>
       <c r="N2">
-        <v>1.050106775849412</v>
+        <v>1.057802574908272</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03381863805456</v>
+        <v>1.052533998183304</v>
       </c>
       <c r="D3">
-        <v>1.044146578750048</v>
+        <v>1.052156091355224</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.038206857371218</v>
+        <v>1.060441499866155</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061559162116</v>
+        <v>1.049143712843775</v>
       </c>
       <c r="J3">
-        <v>1.05342798651115</v>
+        <v>1.05721124091216</v>
       </c>
       <c r="K3">
-        <v>1.054244116446118</v>
+        <v>1.054720483195767</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.048373143712659</v>
+        <v>1.062984754820608</v>
       </c>
       <c r="N3">
-        <v>1.054923975081874</v>
+        <v>1.058712602138079</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037961790978489</v>
+        <v>1.053347991943685</v>
       </c>
       <c r="D4">
-        <v>1.047352655958386</v>
+        <v>1.052783875031494</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.042741931560866</v>
+        <v>1.06138847480587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063378716105571</v>
+        <v>1.049440737737445</v>
       </c>
       <c r="J4">
-        <v>1.056441872752578</v>
+        <v>1.057797289167355</v>
       </c>
       <c r="K4">
-        <v>1.056911289471302</v>
+        <v>1.055226123099598</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.052350479202183</v>
+        <v>1.063809885846709</v>
       </c>
       <c r="N4">
-        <v>1.057942141387464</v>
+        <v>1.059299482649018</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039675069172383</v>
+        <v>1.053689849633786</v>
       </c>
       <c r="D5">
-        <v>1.048678557936801</v>
+        <v>1.053047459533702</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.044618631280354</v>
+        <v>1.061786347606994</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064127954719379</v>
+        <v>1.049565102189247</v>
       </c>
       <c r="J5">
-        <v>1.057686406366095</v>
+        <v>1.058043196879179</v>
       </c>
       <c r="K5">
-        <v>1.058012157268907</v>
+        <v>1.055438211191599</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.053994931517275</v>
+        <v>1.064156412002906</v>
       </c>
       <c r="N5">
-        <v>1.059188442381461</v>
+        <v>1.059545739577999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039961107306229</v>
+        <v>1.053747228933189</v>
       </c>
       <c r="D6">
-        <v>1.048899927471912</v>
+        <v>1.05309169693204</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.04493203360102</v>
+        <v>1.061853138561521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064252854500558</v>
+        <v>1.049585953985012</v>
       </c>
       <c r="J6">
-        <v>1.057894080745846</v>
+        <v>1.058084458583507</v>
       </c>
       <c r="K6">
-        <v>1.058195828603988</v>
+        <v>1.055473793484025</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.05426946399017</v>
+        <v>1.06421457437224</v>
       </c>
       <c r="N6">
-        <v>1.059396411682652</v>
+        <v>1.059587059878679</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.037984793932389</v>
+        <v>1.05335256121375</v>
       </c>
       <c r="D7">
-        <v>1.047370457491411</v>
+        <v>1.052787398375972</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.042767123265777</v>
+        <v>1.061393792119713</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063388788246365</v>
+        <v>1.049442401482363</v>
       </c>
       <c r="J7">
-        <v>1.056458589261567</v>
+        <v>1.057800576828801</v>
       </c>
       <c r="K7">
-        <v>1.056926078254634</v>
+        <v>1.055228958924882</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.052372559088992</v>
+        <v>1.063814517550058</v>
       </c>
       <c r="N7">
-        <v>1.057958881635812</v>
+        <v>1.05930277497932</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.029478121736749</v>
+        <v>1.051699971627777</v>
       </c>
       <c r="D8">
-        <v>1.040788409818864</v>
+        <v>1.051512622386632</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.033460398483786</v>
+        <v>1.059471785187632</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059641940600781</v>
+        <v>1.048838085731696</v>
       </c>
       <c r="J8">
-        <v>1.050264462868545</v>
+        <v>1.056610025029351</v>
       </c>
       <c r="K8">
-        <v>1.051442829676715</v>
+        <v>1.054201483931317</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.044205427777035</v>
+        <v>1.06213928535659</v>
       </c>
       <c r="N8">
-        <v>1.051755958872836</v>
+        <v>1.058110532459756</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013450634709973</v>
+        <v>1.048776488147909</v>
       </c>
       <c r="D9">
-        <v>1.028397314818672</v>
+        <v>1.049255324891316</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.015969157646365</v>
+        <v>1.056076984236263</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052477948657684</v>
+        <v>1.047756895953692</v>
       </c>
       <c r="J9">
-        <v>1.038537196463589</v>
+        <v>1.054496912710585</v>
       </c>
       <c r="K9">
-        <v>1.041045874131744</v>
+        <v>1.052375259874171</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.02880835261698</v>
+        <v>1.059175429826549</v>
       </c>
       <c r="N9">
-        <v>1.040012038404449</v>
+        <v>1.055994419279121</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001948491572207</v>
+        <v>1.046819528998376</v>
       </c>
       <c r="D10">
-        <v>1.019517409676418</v>
+        <v>1.047742880924308</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.00344426165064</v>
+        <v>1.053808052307852</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047268158292843</v>
+        <v>1.047025006986666</v>
       </c>
       <c r="J10">
-        <v>1.030085014776549</v>
+        <v>1.053077724416754</v>
       </c>
       <c r="K10">
-        <v>1.033542991662875</v>
+        <v>1.051147041628869</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.017751606110769</v>
+        <v>1.057191208536808</v>
       </c>
       <c r="N10">
-        <v>1.031547853649935</v>
+        <v>1.054573215575128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9967430630001368</v>
+        <v>1.045970186420443</v>
       </c>
       <c r="D11">
-        <v>1.015503115251381</v>
+        <v>1.047086133755474</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9977820270530673</v>
+        <v>1.052824138169953</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044894777659407</v>
+        <v>1.046705429590609</v>
       </c>
       <c r="J11">
-        <v>1.026251964867094</v>
+        <v>1.052460672379776</v>
       </c>
       <c r="K11">
-        <v>1.03013847029117</v>
+        <v>1.050612619917919</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.012745892660734</v>
+        <v>1.056329972254818</v>
       </c>
       <c r="N11">
-        <v>1.027709360369951</v>
+        <v>1.053955287253481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9947727009620279</v>
+        <v>1.045654401458129</v>
       </c>
       <c r="D12">
-        <v>1.013984419555153</v>
+        <v>1.046841906891274</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9956396114149083</v>
+        <v>1.052458443393187</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043994116853506</v>
+        <v>1.046586321358274</v>
       </c>
       <c r="J12">
-        <v>1.02479994898612</v>
+        <v>1.052231086649936</v>
       </c>
       <c r="K12">
-        <v>1.02884851636881</v>
+        <v>1.05041371819107</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.010850829107597</v>
+        <v>1.056009755515142</v>
       </c>
       <c r="N12">
-        <v>1.026255282459877</v>
+        <v>1.053725375485571</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9951970701555465</v>
+        <v>1.045722152134489</v>
       </c>
       <c r="D13">
-        <v>1.014311472243888</v>
+        <v>1.04689430719488</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9961009991137034</v>
+        <v>1.05253689647308</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044188199998934</v>
+        <v>1.046611888755496</v>
       </c>
       <c r="J13">
-        <v>1.025112728553309</v>
+        <v>1.05228035106726</v>
       </c>
       <c r="K13">
-        <v>1.029126397862533</v>
+        <v>1.050456401164461</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.01125899457826</v>
+        <v>1.056078457461871</v>
       </c>
       <c r="N13">
-        <v>1.026568506209928</v>
+        <v>1.053774709864019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.996580962613289</v>
+        <v>1.045944089717826</v>
       </c>
       <c r="D14">
-        <v>1.015378156162277</v>
+        <v>1.047065951656672</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9976057548811298</v>
+        <v>1.052793914362412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044820726900213</v>
+        <v>1.046695592302447</v>
       </c>
       <c r="J14">
-        <v>1.026132530962173</v>
+        <v>1.052441702633821</v>
       </c>
       <c r="K14">
-        <v>1.030032371942606</v>
+        <v>1.050596186692866</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.012589993191135</v>
+        <v>1.056303509507395</v>
       </c>
       <c r="N14">
-        <v>1.027589756855186</v>
+        <v>1.053936290568311</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9974286460967821</v>
+        <v>1.046080792684183</v>
       </c>
       <c r="D15">
-        <v>1.016031647170656</v>
+        <v>1.047171670025028</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9985275824179415</v>
+        <v>1.052952241502815</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04520787340389</v>
+        <v>1.046747111345554</v>
       </c>
       <c r="J15">
-        <v>1.026757050034197</v>
+        <v>1.052541065493677</v>
       </c>
       <c r="K15">
-        <v>1.03058714863307</v>
+        <v>1.050682260885446</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.013405237536382</v>
+        <v>1.056442129534781</v>
       </c>
       <c r="N15">
-        <v>1.028215162815925</v>
+        <v>1.054035794534826</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002288968676611</v>
+        <v>1.046875855137422</v>
       </c>
       <c r="D16">
-        <v>1.019780079273122</v>
+        <v>1.047786427780059</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.003814738576722</v>
+        <v>1.053873320253861</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047423078108657</v>
+        <v>1.047046159921259</v>
       </c>
       <c r="J16">
-        <v>1.03033556845426</v>
+        <v>1.053118622361675</v>
       </c>
       <c r="K16">
-        <v>1.033765495109573</v>
+        <v>1.051182454436139</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.018078980313772</v>
+        <v>1.057248322099254</v>
       </c>
       <c r="N16">
-        <v>1.031798763142606</v>
+        <v>1.054614171599823</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005275469676563</v>
+        <v>1.047374046214513</v>
       </c>
       <c r="D17">
-        <v>1.022084602802302</v>
+        <v>1.048171551288757</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.00706506097381</v>
+        <v>1.054450694930388</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048780203249517</v>
+        <v>1.047233029943086</v>
       </c>
       <c r="J17">
-        <v>1.032532418057626</v>
+        <v>1.053480226965446</v>
       </c>
       <c r="K17">
-        <v>1.035716180896444</v>
+        <v>1.051495515160988</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.020950337782668</v>
+        <v>1.057753470579613</v>
       </c>
       <c r="N17">
-        <v>1.033998732524392</v>
+        <v>1.054976289723608</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006995967553156</v>
+        <v>1.047664443317239</v>
       </c>
       <c r="D18">
-        <v>1.023412624183825</v>
+        <v>1.04839600918719</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.008938116538096</v>
+        <v>1.054787328235653</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0495605588567</v>
+        <v>1.047341771144515</v>
       </c>
       <c r="J18">
-        <v>1.033797256340541</v>
+        <v>1.053690900604851</v>
       </c>
       <c r="K18">
-        <v>1.036839102794632</v>
+        <v>1.051677868055397</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.022604329623488</v>
+        <v>1.058047917266423</v>
       </c>
       <c r="N18">
-        <v>1.035265367022747</v>
+        <v>1.055187262543745</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007579056240366</v>
+        <v>1.047763429289375</v>
       </c>
       <c r="D19">
-        <v>1.023862764772536</v>
+        <v>1.048472513434792</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.009573006623069</v>
+        <v>1.054902088034713</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049824775274796</v>
+        <v>1.047378805584835</v>
       </c>
       <c r="J19">
-        <v>1.03422579018345</v>
+        <v>1.053762693582109</v>
       </c>
       <c r="K19">
-        <v>1.037219522114513</v>
+        <v>1.051740003368596</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.0231648501556</v>
+        <v>1.058148282608282</v>
       </c>
       <c r="N19">
-        <v>1.035694509432867</v>
+        <v>1.055259157475266</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004957288700196</v>
+        <v>1.047320614653563</v>
       </c>
       <c r="D20">
-        <v>1.021839036517277</v>
+        <v>1.048130249635369</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.006718713397103</v>
+        <v>1.054388762582308</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048635768159037</v>
+        <v>1.04721300715251</v>
       </c>
       <c r="J20">
-        <v>1.032298443651979</v>
+        <v>1.053441455506296</v>
       </c>
       <c r="K20">
-        <v>1.035508443346244</v>
+        <v>1.051461952608812</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.020644442253294</v>
+        <v>1.057699293443725</v>
       </c>
       <c r="N20">
-        <v>1.033764425848251</v>
+        <v>1.054937463204539</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9961744839244767</v>
+        <v>1.04587874299636</v>
       </c>
       <c r="D21">
-        <v>1.015064825325872</v>
+        <v>1.047015414449552</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9971637529820224</v>
+        <v>1.052718235275976</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044635002591987</v>
+        <v>1.046670954838924</v>
       </c>
       <c r="J21">
-        <v>1.025833023719344</v>
+        <v>1.052394199286012</v>
       </c>
       <c r="K21">
-        <v>1.029766302327864</v>
+        <v>1.050555034237922</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.012199058900617</v>
+        <v>1.056237246043319</v>
       </c>
       <c r="N21">
-        <v>1.027289824277718</v>
+        <v>1.0538887197603</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9904374764347027</v>
+        <v>1.044970434815412</v>
       </c>
       <c r="D22">
-        <v>1.010644592026245</v>
+        <v>1.046312841379829</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9909273477329771</v>
+        <v>1.051666601605748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04200831984842</v>
+        <v>1.046327812329876</v>
       </c>
       <c r="J22">
-        <v>1.0216031925417</v>
+        <v>1.051733517294475</v>
       </c>
       <c r="K22">
-        <v>1.026008086254599</v>
+        <v>1.049982538876018</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.006680703948927</v>
+        <v>1.055316171724123</v>
       </c>
       <c r="N22">
-        <v>1.023053986254634</v>
+        <v>1.053227099524554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9935002629250576</v>
+        <v>1.045452113667264</v>
       </c>
       <c r="D23">
-        <v>1.013003905544293</v>
+        <v>1.046685444668867</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>0.9942562974228325</v>
+        <v>1.05222421878938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043411843331867</v>
+        <v>1.046509940660904</v>
       </c>
       <c r="J23">
-        <v>1.023861943603534</v>
+        <v>1.052083970216066</v>
       </c>
       <c r="K23">
-        <v>1.028015130432911</v>
+        <v>1.050286246879399</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>1.009626931355682</v>
+        <v>1.055804625995961</v>
       </c>
       <c r="N23">
-        <v>1.025315945002057</v>
+        <v>1.053578050129491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005101127134344</v>
+        <v>1.04734475866062</v>
       </c>
       <c r="D24">
-        <v>1.021950047154188</v>
+        <v>1.048148912624901</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.006875283179107</v>
+        <v>1.054416747575323</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048701066765234</v>
+        <v>1.047222055383373</v>
       </c>
       <c r="J24">
-        <v>1.032404217584259</v>
+        <v>1.053458975414071</v>
       </c>
       <c r="K24">
-        <v>1.035602356841377</v>
+        <v>1.051477118854081</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>1.020782727404224</v>
+        <v>1.057723774370356</v>
       </c>
       <c r="N24">
-        <v>1.033870349991648</v>
+        <v>1.054955007992592</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.017728603105832</v>
+        <v>1.049533661458441</v>
       </c>
       <c r="D25">
-        <v>1.031702963905538</v>
+        <v>1.049840211707189</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>1.020632953707772</v>
+        <v>1.056955604830508</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054401980930531</v>
+        <v>1.048038355470513</v>
       </c>
       <c r="J25">
-        <v>1.041673712745028</v>
+        <v>1.055045027854726</v>
       </c>
       <c r="K25">
-        <v>1.0438282881644</v>
+        <v>1.052849260627809</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>1.032919195853343</v>
+        <v>1.059943099349109</v>
       </c>
       <c r="N25">
-        <v>1.04315300889877</v>
+        <v>1.056543312809636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051273764027869</v>
+        <v>1.027221699480779</v>
       </c>
       <c r="D2">
-        <v>1.05118370490395</v>
+        <v>1.039042990154931</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.058976453859706</v>
+        <v>1.030994697454509</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048681408022068</v>
+        <v>1.058641103287612</v>
       </c>
       <c r="J2">
-        <v>1.056302504192728</v>
+        <v>1.048617618552945</v>
       </c>
       <c r="K2">
-        <v>1.053935912474021</v>
+        <v>1.049983926260078</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.061707217612974</v>
+        <v>1.042038476116059</v>
       </c>
       <c r="N2">
-        <v>1.057802574908272</v>
+        <v>1.050106775849412</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052533998183304</v>
+        <v>1.033818638054563</v>
       </c>
       <c r="D3">
-        <v>1.052156091355224</v>
+        <v>1.044146578750051</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.060441499866155</v>
+        <v>1.038206857371221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049143712843775</v>
+        <v>1.061559162116002</v>
       </c>
       <c r="J3">
-        <v>1.05721124091216</v>
+        <v>1.053427986511153</v>
       </c>
       <c r="K3">
-        <v>1.054720483195767</v>
+        <v>1.054244116446121</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.062984754820608</v>
+        <v>1.048373143712662</v>
       </c>
       <c r="N3">
-        <v>1.058712602138079</v>
+        <v>1.054923975081878</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053347991943685</v>
+        <v>1.037961790978488</v>
       </c>
       <c r="D4">
-        <v>1.052783875031494</v>
+        <v>1.047352655958385</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.06138847480587</v>
+        <v>1.042741931560865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049440737737445</v>
+        <v>1.063378716105571</v>
       </c>
       <c r="J4">
-        <v>1.057797289167355</v>
+        <v>1.056441872752578</v>
       </c>
       <c r="K4">
-        <v>1.055226123099598</v>
+        <v>1.056911289471302</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.063809885846709</v>
+        <v>1.052350479202182</v>
       </c>
       <c r="N4">
-        <v>1.059299482649018</v>
+        <v>1.057942141387463</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053689849633786</v>
+        <v>1.039675069172381</v>
       </c>
       <c r="D5">
-        <v>1.053047459533702</v>
+        <v>1.048678557936799</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.061786347606994</v>
+        <v>1.044618631280351</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049565102189247</v>
+        <v>1.064127954719377</v>
       </c>
       <c r="J5">
-        <v>1.058043196879179</v>
+        <v>1.057686406366093</v>
       </c>
       <c r="K5">
-        <v>1.055438211191599</v>
+        <v>1.058012157268905</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.064156412002906</v>
+        <v>1.053994931517273</v>
       </c>
       <c r="N5">
-        <v>1.059545739577999</v>
+        <v>1.059188442381459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053747228933189</v>
+        <v>1.039961107306229</v>
       </c>
       <c r="D6">
-        <v>1.05309169693204</v>
+        <v>1.048899927471911</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.061853138561521</v>
+        <v>1.04493203360102</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049585953985012</v>
+        <v>1.064252854500558</v>
       </c>
       <c r="J6">
-        <v>1.058084458583507</v>
+        <v>1.057894080745846</v>
       </c>
       <c r="K6">
-        <v>1.055473793484025</v>
+        <v>1.058195828603988</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.06421457437224</v>
+        <v>1.054269463990169</v>
       </c>
       <c r="N6">
-        <v>1.059587059878679</v>
+        <v>1.059396411682652</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05335256121375</v>
+        <v>1.037984793932388</v>
       </c>
       <c r="D7">
-        <v>1.052787398375972</v>
+        <v>1.04737045749141</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.061393792119713</v>
+        <v>1.042767123265776</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049442401482363</v>
+        <v>1.063388788246364</v>
       </c>
       <c r="J7">
-        <v>1.057800576828801</v>
+        <v>1.056458589261566</v>
       </c>
       <c r="K7">
-        <v>1.055228958924882</v>
+        <v>1.056926078254633</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.063814517550058</v>
+        <v>1.052372559088991</v>
       </c>
       <c r="N7">
-        <v>1.05930277497932</v>
+        <v>1.057958881635811</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051699971627777</v>
+        <v>1.029478121736749</v>
       </c>
       <c r="D8">
-        <v>1.051512622386632</v>
+        <v>1.040788409818864</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.059471785187632</v>
+        <v>1.033460398483786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048838085731696</v>
+        <v>1.059641940600781</v>
       </c>
       <c r="J8">
-        <v>1.056610025029351</v>
+        <v>1.050264462868545</v>
       </c>
       <c r="K8">
-        <v>1.054201483931317</v>
+        <v>1.051442829676715</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.06213928535659</v>
+        <v>1.044205427777035</v>
       </c>
       <c r="N8">
-        <v>1.058110532459756</v>
+        <v>1.051755958872836</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048776488147909</v>
+        <v>1.013450634709973</v>
       </c>
       <c r="D9">
-        <v>1.049255324891316</v>
+        <v>1.028397314818671</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.056076984236263</v>
+        <v>1.015969157646365</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047756895953692</v>
+        <v>1.052477948657684</v>
       </c>
       <c r="J9">
-        <v>1.054496912710585</v>
+        <v>1.038537196463588</v>
       </c>
       <c r="K9">
-        <v>1.052375259874171</v>
+        <v>1.041045874131744</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.059175429826549</v>
+        <v>1.02880835261698</v>
       </c>
       <c r="N9">
-        <v>1.055994419279121</v>
+        <v>1.040012038404448</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046819528998376</v>
+        <v>1.001948491572207</v>
       </c>
       <c r="D10">
-        <v>1.047742880924308</v>
+        <v>1.019517409676418</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.053808052307852</v>
+        <v>1.00344426165064</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047025006986666</v>
+        <v>1.047268158292843</v>
       </c>
       <c r="J10">
-        <v>1.053077724416754</v>
+        <v>1.030085014776549</v>
       </c>
       <c r="K10">
-        <v>1.051147041628869</v>
+        <v>1.033542991662875</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.057191208536808</v>
+        <v>1.017751606110769</v>
       </c>
       <c r="N10">
-        <v>1.054573215575128</v>
+        <v>1.031547853649935</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045970186420443</v>
+        <v>0.9967430630001369</v>
       </c>
       <c r="D11">
-        <v>1.047086133755474</v>
+        <v>1.015503115251381</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.052824138169953</v>
+        <v>0.9977820270530678</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046705429590609</v>
+        <v>1.044894777659406</v>
       </c>
       <c r="J11">
-        <v>1.052460672379776</v>
+        <v>1.026251964867094</v>
       </c>
       <c r="K11">
-        <v>1.050612619917919</v>
+        <v>1.030138470291171</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.056329972254818</v>
+        <v>1.012745892660734</v>
       </c>
       <c r="N11">
-        <v>1.053955287253481</v>
+        <v>1.027709360369951</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045654401458129</v>
+        <v>0.994772700962026</v>
       </c>
       <c r="D12">
-        <v>1.046841906891274</v>
+        <v>1.013984419555151</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.052458443393187</v>
+        <v>0.9956396114149068</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046586321358274</v>
+        <v>1.043994116853505</v>
       </c>
       <c r="J12">
-        <v>1.052231086649936</v>
+        <v>1.024799948986118</v>
       </c>
       <c r="K12">
-        <v>1.05041371819107</v>
+        <v>1.028848516368809</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.056009755515142</v>
+        <v>1.010850829107595</v>
       </c>
       <c r="N12">
-        <v>1.053725375485571</v>
+        <v>1.026255282459876</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045722152134489</v>
+        <v>0.9951970701555459</v>
       </c>
       <c r="D13">
-        <v>1.04689430719488</v>
+        <v>1.014311472243888</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.05253689647308</v>
+        <v>0.9961009991137023</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046611888755496</v>
+        <v>1.044188199998933</v>
       </c>
       <c r="J13">
-        <v>1.05228035106726</v>
+        <v>1.025112728553308</v>
       </c>
       <c r="K13">
-        <v>1.050456401164461</v>
+        <v>1.029126397862532</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.056078457461871</v>
+        <v>1.011258994578259</v>
       </c>
       <c r="N13">
-        <v>1.053774709864019</v>
+        <v>1.026568506209927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045944089717826</v>
+        <v>0.9965809626132882</v>
       </c>
       <c r="D14">
-        <v>1.047065951656672</v>
+        <v>1.015378156162276</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.052793914362412</v>
+        <v>0.9976057548811295</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046695592302447</v>
+        <v>1.044820726900213</v>
       </c>
       <c r="J14">
-        <v>1.052441702633821</v>
+        <v>1.026132530962172</v>
       </c>
       <c r="K14">
-        <v>1.050596186692866</v>
+        <v>1.030032371942605</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.056303509507395</v>
+        <v>1.012589993191134</v>
       </c>
       <c r="N14">
-        <v>1.053936290568311</v>
+        <v>1.027589756855185</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046080792684183</v>
+        <v>0.9974286460967796</v>
       </c>
       <c r="D15">
-        <v>1.047171670025028</v>
+        <v>1.016031647170653</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.052952241502815</v>
+        <v>0.9985275824179392</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046747111345554</v>
+        <v>1.045207873403888</v>
       </c>
       <c r="J15">
-        <v>1.052541065493677</v>
+        <v>1.026757050034194</v>
       </c>
       <c r="K15">
-        <v>1.050682260885446</v>
+        <v>1.030587148633068</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.056442129534781</v>
+        <v>1.01340523753638</v>
       </c>
       <c r="N15">
-        <v>1.054035794534826</v>
+        <v>1.028215162815923</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046875855137422</v>
+        <v>1.00228896867661</v>
       </c>
       <c r="D16">
-        <v>1.047786427780059</v>
+        <v>1.019780079273121</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.053873320253861</v>
+        <v>1.00381473857672</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047046159921259</v>
+        <v>1.047423078108656</v>
       </c>
       <c r="J16">
-        <v>1.053118622361675</v>
+        <v>1.030335568454259</v>
       </c>
       <c r="K16">
-        <v>1.051182454436139</v>
+        <v>1.033765495109572</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.057248322099254</v>
+        <v>1.018078980313771</v>
       </c>
       <c r="N16">
-        <v>1.054614171599823</v>
+        <v>1.031798763142605</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047374046214513</v>
+        <v>1.005275469676563</v>
       </c>
       <c r="D17">
-        <v>1.048171551288757</v>
+        <v>1.022084602802302</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.054450694930388</v>
+        <v>1.00706506097381</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047233029943086</v>
+        <v>1.048780203249516</v>
       </c>
       <c r="J17">
-        <v>1.053480226965446</v>
+        <v>1.032532418057625</v>
       </c>
       <c r="K17">
-        <v>1.051495515160988</v>
+        <v>1.035716180896444</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.057753470579613</v>
+        <v>1.020950337782668</v>
       </c>
       <c r="N17">
-        <v>1.054976289723608</v>
+        <v>1.033998732524391</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047664443317239</v>
+        <v>1.006995967553155</v>
       </c>
       <c r="D18">
-        <v>1.04839600918719</v>
+        <v>1.023412624183825</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.054787328235653</v>
+        <v>1.008938116538095</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047341771144515</v>
+        <v>1.049560558856699</v>
       </c>
       <c r="J18">
-        <v>1.053690900604851</v>
+        <v>1.033797256340541</v>
       </c>
       <c r="K18">
-        <v>1.051677868055397</v>
+        <v>1.036839102794631</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.058047917266423</v>
+        <v>1.022604329623487</v>
       </c>
       <c r="N18">
-        <v>1.055187262543745</v>
+        <v>1.035265367022747</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047763429289375</v>
+        <v>1.007579056240367</v>
       </c>
       <c r="D19">
-        <v>1.048472513434792</v>
+        <v>1.023862764772537</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.054902088034713</v>
+        <v>1.00957300662307</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047378805584835</v>
+        <v>1.049824775274797</v>
       </c>
       <c r="J19">
-        <v>1.053762693582109</v>
+        <v>1.034225790183451</v>
       </c>
       <c r="K19">
-        <v>1.051740003368596</v>
+        <v>1.037219522114514</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.058148282608282</v>
+        <v>1.023164850155601</v>
       </c>
       <c r="N19">
-        <v>1.055259157475266</v>
+        <v>1.035694509432868</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047320614653563</v>
+        <v>1.004957288700197</v>
       </c>
       <c r="D20">
-        <v>1.048130249635369</v>
+        <v>1.021839036517277</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.054388762582308</v>
+        <v>1.006718713397103</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04721300715251</v>
+        <v>1.048635768159037</v>
       </c>
       <c r="J20">
-        <v>1.053441455506296</v>
+        <v>1.032298443651979</v>
       </c>
       <c r="K20">
-        <v>1.051461952608812</v>
+        <v>1.035508443346244</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.057699293443725</v>
+        <v>1.020644442253294</v>
       </c>
       <c r="N20">
-        <v>1.054937463204539</v>
+        <v>1.033764425848252</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04587874299636</v>
+        <v>0.9961744839244763</v>
       </c>
       <c r="D21">
-        <v>1.047015414449552</v>
+        <v>1.015064825325872</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.052718235275976</v>
+        <v>0.9971637529820216</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046670954838924</v>
+        <v>1.044635002591987</v>
       </c>
       <c r="J21">
-        <v>1.052394199286012</v>
+        <v>1.025833023719344</v>
       </c>
       <c r="K21">
-        <v>1.050555034237922</v>
+        <v>1.029766302327863</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.056237246043319</v>
+        <v>1.012199058900617</v>
       </c>
       <c r="N21">
-        <v>1.0538887197603</v>
+        <v>1.027289824277718</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044970434815412</v>
+        <v>0.9904374764347024</v>
       </c>
       <c r="D22">
-        <v>1.046312841379829</v>
+        <v>1.010644592026245</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.051666601605748</v>
+        <v>0.9909273477329765</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046327812329876</v>
+        <v>1.04200831984842</v>
       </c>
       <c r="J22">
-        <v>1.051733517294475</v>
+        <v>1.0216031925417</v>
       </c>
       <c r="K22">
-        <v>1.049982538876018</v>
+        <v>1.026008086254599</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.055316171724123</v>
+        <v>1.006680703948927</v>
       </c>
       <c r="N22">
-        <v>1.053227099524554</v>
+        <v>1.023053986254633</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045452113667264</v>
+        <v>0.9935002629250572</v>
       </c>
       <c r="D23">
-        <v>1.046685444668867</v>
+        <v>1.013003905544293</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.05222421878938</v>
+        <v>0.9942562974228322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046509940660904</v>
+        <v>1.043411843331867</v>
       </c>
       <c r="J23">
-        <v>1.052083970216066</v>
+        <v>1.023861943603533</v>
       </c>
       <c r="K23">
-        <v>1.050286246879399</v>
+        <v>1.028015130432911</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.055804625995961</v>
+        <v>1.009626931355682</v>
       </c>
       <c r="N23">
-        <v>1.053578050129491</v>
+        <v>1.025315945002057</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04734475866062</v>
+        <v>1.005101127134344</v>
       </c>
       <c r="D24">
-        <v>1.048148912624901</v>
+        <v>1.021950047154187</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.054416747575323</v>
+        <v>1.006875283179106</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047222055383373</v>
+        <v>1.048701066765234</v>
       </c>
       <c r="J24">
-        <v>1.053458975414071</v>
+        <v>1.032404217584258</v>
       </c>
       <c r="K24">
-        <v>1.051477118854081</v>
+        <v>1.035602356841377</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.057723774370356</v>
+        <v>1.020782727404224</v>
       </c>
       <c r="N24">
-        <v>1.054955007992592</v>
+        <v>1.033870349991647</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049533661458441</v>
+        <v>1.017728603105834</v>
       </c>
       <c r="D25">
-        <v>1.049840211707189</v>
+        <v>1.031702963905539</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.056955604830508</v>
+        <v>1.020632953707774</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048038355470513</v>
+        <v>1.054401980930533</v>
       </c>
       <c r="J25">
-        <v>1.055045027854726</v>
+        <v>1.041673712745029</v>
       </c>
       <c r="K25">
-        <v>1.052849260627809</v>
+        <v>1.043828288164402</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.059943099349109</v>
+        <v>1.032919195853345</v>
       </c>
       <c r="N25">
-        <v>1.056543312809636</v>
+        <v>1.043153008898772</v>
       </c>
     </row>
   </sheetData>
